--- a/medicine/Psychotrope/Christine_Dattner/Christine_Dattner.xlsx
+++ b/medicine/Psychotrope/Christine_Dattner/Christine_Dattner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Christine Dattner, née en 1955 à Lorient, est une auteure française et créatrice de mélanges de thés[1]. Elle a publié sept ouvrages sur le thé[2]. Elle a développé sa propre marque[3],[4],[5] depuis 2012 et exporte au Japon, en Corée et en Europe, arguant d'une expérience de plus de 35 ans dans le domaine[6] du thé aromatisé à la française. Ses ouvrages à visée didactique[7] donnent des exemples d'utilisation du thé en gastronomie.
+Christine Dattner, née en 1955 à Lorient, est une auteure française et créatrice de mélanges de thés. Elle a publié sept ouvrages sur le thé. Elle a développé sa propre marque depuis 2012 et exporte au Japon, en Corée et en Europe, arguant d'une expérience de plus de 35 ans dans le domaine du thé aromatisé à la française. Ses ouvrages à visée didactique donnent des exemples d'utilisation du thé en gastronomie.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le livre du thé vert, (Flammarion/Plume 2002) (seconde place Première Nuit du Livre),  (ISBN 2841101673 et 978-2841101672)
 Le thé et ses bienfaits, avec Michèle Carles  (Flammarion 2005),  (ISBN 2082014592 et 978-2082014595)
 L'histoire du thé, Le goût du thé (coffret 2 livres) Flammarion 2006    (ISBN 2082015203)
 La cuisine au thé, 80 recettes simples et originales Grund 2009  (ISBN 2700029658)
-Thé, rituels et bienfaits, avec Marie-France Michalon (Flammarion 2009)  (ISBN 2081205432) lauréat "La nuit du livre"[8], prix Spirit 2015[9]
+Thé, rituels et bienfaits, avec Marie-France Michalon (Flammarion 2009)  (ISBN 2081205432) lauréat "La nuit du livre", prix Spirit 2015
 Les couleurs du thé, avec Marie-France Michalon (Chêne 2014)   (ISBN 2812310626 et 978-2812310621)</t>
         </is>
       </c>
